--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -33,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LIST = Luxembourg Institute of Science and Technology</t>
         </r>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>User</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Diana Rodriguez Cala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theresa Jörger-Hickfang </t>
+  </si>
+  <si>
+    <t>Corrected various issues associated with costs map file, including mis-match between it and landscape</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -988,7 +994,15 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>180417</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
@@ -1008,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1096,6 +1110,11 @@
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter_v2_0\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,110 +823,113 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>170419</v>
+        <v>170430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>170430</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <v>170430</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>45</v>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
+      <c r="A14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="3">
         <v>170430</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3">
-        <v>170430</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>171027</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
-        <v>171027</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
+      <c r="C16" s="3">
+        <v>171205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
+      <c r="A17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>171205</v>
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>180103</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5">
-        <v>180103</v>
+        <v>180112</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -934,16 +937,13 @@
       <c r="C19" s="5">
         <v>180112</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5">
         <v>180112</v>
@@ -951,21 +951,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5">
         <v>180417</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5">
         <v>180417</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5">
-        <v>180417</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>180822</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,6 +1113,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>180822</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>61</v>
       </c>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
     <sheet name="Versions" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>User</t>
   </si>
@@ -301,6 +300,9 @@
   </si>
   <si>
     <t>Corrected various issues associated with costs map file, including mis-match between it and landscape</t>
+  </si>
+  <si>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1120,6 +1122,11 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:A11">
     <sortCondition ref="A2:A11"/>
@@ -1127,16 +1134,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>User</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file</t>
+  </si>
+  <si>
+    <t>Benjamin Bleyhl</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Euan Phimister</t>
   </si>
 </sst>
 </file>
@@ -681,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -986,10 +995,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5">
         <v>180417</v>
@@ -997,20 +1006,39 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>180822</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
+        <v>180822</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>180822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D27">
@@ -1028,7 +1056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -25,7 +25,7 @@
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,55 +90,9 @@
     <t>Rob Fitt</t>
   </si>
   <si>
-    <r>
-      <t>Aur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>é</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lie Coulon</t>
-    </r>
-  </si>
-  <si>
     <t>CEFE CNRS</t>
   </si>
   <si>
-    <r>
-      <t>St</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>éphanie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Manel</t>
-    </r>
-  </si>
-  <si>
     <t>No confirmation of receipt</t>
   </si>
   <si>
@@ -181,29 +135,6 @@
     <t>Fixed bug in reading batch TransferFile when movement model is CRW</t>
   </si>
   <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>éci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>le Albert</t>
-    </r>
-  </si>
-  <si>
     <t>IMBE</t>
   </si>
   <si>
@@ -213,20 +144,6 @@
     <t>Alexandre Villers</t>
   </si>
   <si>
-    <r>
-      <t>CNRS Chiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>é</t>
-    </r>
-  </si>
-  <si>
     <t>Calum Anderson</t>
   </si>
   <si>
@@ -302,9 +219,6 @@
     <t>Corrected various issues associated with costs map file, including mis-match between it and landscape</t>
   </si>
   <si>
-    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file</t>
-  </si>
-  <si>
     <t>Benjamin Bleyhl</t>
   </si>
   <si>
@@ -312,13 +226,28 @@
   </si>
   <si>
     <t>Euan Phimister</t>
+  </si>
+  <si>
+    <t>CNRS Chizé</t>
+  </si>
+  <si>
+    <t>Stéphanie Manel</t>
+  </si>
+  <si>
+    <t>Aurélie Coulon</t>
+  </si>
+  <si>
+    <t>Cécile Albert</t>
+  </si>
+  <si>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -330,12 +259,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -385,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,213 +643,216 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>160901</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4">
-        <v>160901</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>161212</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>161212</v>
       </c>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>161212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
         <v>161212</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>161212</v>
+        <v>170118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>170118</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>170302</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>170302</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>170327</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>170327</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>170430</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3">
         <v>170430</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>170430</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
+      <c r="D12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
+      <c r="A13" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>170430</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3">
-        <v>170430</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>171027</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5">
-        <v>171027</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
+      <c r="C15" s="3">
+        <v>171205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>171205</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>180103</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5">
-        <v>180103</v>
+        <v>180112</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -934,16 +860,13 @@
       <c r="C18" s="5">
         <v>180112</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>180112</v>
@@ -954,18 +877,18 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>180417</v>
@@ -973,7 +896,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -984,29 +907,30 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
       </c>
       <c r="C23" s="5">
         <v>180417</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>63</v>
+      <c r="A24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5">
-        <v>180417</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>180822</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1017,10 +941,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
         <v>180822</v>
@@ -1028,7 +952,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1041,8 +965,8 @@
       <c r="C28" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D27">
-    <sortCondition ref="C2:C27"/>
+  <sortState ref="A2:D28">
+    <sortCondition ref="C2:C28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1056,7 +980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1002,7 @@
         <v>170201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,7 +1015,7 @@
         <v>170327</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1023,7 @@
         <v>170419</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1031,7 @@
         <v>170430</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1039,7 @@
         <v>171027</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1047,7 @@
         <v>171205</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1055,7 @@
         <v>180112</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1063,7 @@
         <v>180417</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,12 +1071,12 @@
         <v>180822</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>User</t>
   </si>
@@ -240,7 +240,16 @@
     <t>Cécile Albert</t>
   </si>
   <si>
-    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place</t>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected)</t>
+  </si>
+  <si>
+    <t>Argentina / Brasil / Chile</t>
+  </si>
+  <si>
+    <t>In dropbox folder RangeShifter_v2</t>
+  </si>
+  <si>
+    <t>CONTAIN participants</t>
   </si>
 </sst>
 </file>
@@ -617,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -962,7 +971,18 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>180822</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D28">
@@ -1074,7 +1094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD4464D-46A7-4FE1-8D3F-8CAD769C2E4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -240,9 +241,6 @@
     <t>Cécile Albert</t>
   </si>
   <si>
-    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected)</t>
-  </si>
-  <si>
     <t>Argentina / Brasil / Chile</t>
   </si>
   <si>
@@ -250,12 +248,15 @@
   </si>
   <si>
     <t>CONTAIN participants</t>
+  </si>
+  <si>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected); Incorporated EVOLSMS and HEATMAP variants into standard version; Removed Agner Fog random number generation functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -411,6 +412,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -446,6 +464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -972,20 +1007,20 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3">
         <v>180822</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
     <sortCondition ref="C2:C28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,12 +1030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1094,13 +1129,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD4464D-46A7-4FE1-8D3F-8CAD769C2E4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA14D3-A252-4BF5-84AB-1C46DA41F04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
     <sheet name="Versions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,7 +258,7 @@
     <t>CONTAIN participants</t>
   </si>
   <si>
-    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected); Incorporated EVOLSMS and HEATMAP variants into standard version; Removed Agner Fog random number generation functions</t>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected); Incorporated EVOLSMS and HEATMAP variants into standard version; Removed Agner Fog random number generation functions; Fixed bug causing wrong interpretation of mate-finding rule for SMS in batch mode; Fixed access violation if batch was run from GUI and SMS heat-maps were saved</t>
   </si>
 </sst>
 </file>
@@ -895,11 +903,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
+      <c r="A18" t="s">
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5">
         <v>180112</v>
@@ -907,21 +915,21 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>180417</v>
@@ -929,7 +937,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -940,44 +948,44 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5">
         <v>180417</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
+      <c r="A23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5">
-        <v>180417</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>180822</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
+      <c r="A24" t="s">
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>180822</v>
       </c>
-      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>180822</v>
@@ -985,10 +993,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>180822</v>
@@ -996,27 +1004,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3">
         <v>180822</v>
       </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>67</v>
+      <c r="A28" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="3">
-        <v>180822</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>200203</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1137,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>200203</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>68</v>
       </c>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA14D3-A252-4BF5-84AB-1C46DA41F04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535743E3-5FE2-442C-AF25-1E83DEED32B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>User</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected); Incorporated EVOLSMS and HEATMAP variants into standard version; Removed Agner Fog random number generation functions; Fixed bug causing wrong interpretation of mate-finding rule for SMS in batch mode; Fixed access violation if batch was run from GUI and SMS heat-maps were saved</t>
+  </si>
+  <si>
+    <t>Etienne Fang</t>
+  </si>
+  <si>
+    <t>MSc student</t>
   </si>
 </sst>
 </file>
@@ -665,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,6 +1031,20 @@
       </c>
       <c r="C28" s="5">
         <v>200203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>200203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535743E3-5FE2-442C-AF25-1E83DEED32B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987512BE-A3B4-496C-930B-798E9BE5D7D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>User</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Calum Anderson</t>
-  </si>
-  <si>
-    <t>Documentation and tutorial 4 updated</t>
   </si>
   <si>
     <t>Fixed bug in demographic density dependence for complex sexual model</t>
@@ -675,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -702,7 +699,7 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -821,102 +818,99 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>170430</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>170430</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>170430</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
-        <v>171027</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
+      <c r="C14" s="3">
+        <v>171205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>171205</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>180103</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5">
-        <v>180103</v>
+        <v>180112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5">
         <v>180112</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -924,7 +918,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>180417</v>
@@ -943,44 +937,44 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5">
         <v>180417</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>58</v>
+      <c r="A22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="5">
-        <v>180417</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>180822</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
+      <c r="A23" t="s">
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>180822</v>
       </c>
-      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>180822</v>
@@ -988,10 +982,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
         <v>180822</v>
@@ -999,32 +993,33 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>180822</v>
       </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>67</v>
+      <c r="A27" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3">
-        <v>180822</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>200203</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1035,7 +1030,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1044,12 +1039,12 @@
         <v>200203</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
-    <sortCondition ref="C2:C28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1130,7 +1125,7 @@
         <v>171205</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1133,7 @@
         <v>180112</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1141,7 @@
         <v>180417</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1149,7 @@
         <v>180822</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
@@ -1162,7 +1157,7 @@
         <v>200203</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987512BE-A3B4-496C-930B-798E9BE5D7D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
     <sheet name="Versions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>User</t>
   </si>
@@ -147,9 +156,6 @@
     <t>Calum Anderson</t>
   </si>
   <si>
-    <t>Documentation and tutorial 4 updated</t>
-  </si>
-  <si>
     <t>Fixed bug in demographic density dependence for complex sexual model</t>
   </si>
   <si>
@@ -240,9 +246,6 @@
     <t>Cécile Albert</t>
   </si>
   <si>
-    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected)</t>
-  </si>
-  <si>
     <t>Argentina / Brasil / Chile</t>
   </si>
   <si>
@@ -250,12 +253,21 @@
   </si>
   <si>
     <t>CONTAIN participants</t>
+  </si>
+  <si>
+    <t>Fixed bug in saving initialisation file from GUI for a stage-structured population and revised format of GUI initialisation file to be similar to batch initialisation file; Fixed bug in development when there are multiple reproductive seasons and survival is annual; Fixed bug in initialisation form in checking initial proportions of each stage; Circumvented bug occurring in a patch-based model during the landscape change year when there is a range restriction in place; Changed cross-checking of origin of all landscape raster files to be on the basis of the integer parts of the co-ordinates (i.e. decimal places are rounded down for this purpose); Fixed bug causing memory leak when SMS was used over multiple landscapes in batch (some other small memory leaks also corrected); Incorporated EVOLSMS and HEATMAP variants into standard version; Removed Agner Fog random number generation functions; Fixed bug causing wrong interpretation of mate-finding rule for SMS in batch mode; Fixed access violation if batch was run from GUI and SMS heat-maps were saved</t>
+  </si>
+  <si>
+    <t>Etienne Fang</t>
+  </si>
+  <si>
+    <t>MSc student</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -411,6 +423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -446,6 +475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,12 +667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -653,7 +699,7 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -667,7 +713,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -691,7 +737,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -772,121 +818,118 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>170430</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>170430</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>170430</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
-        <v>171027</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
+      <c r="C14" s="3">
+        <v>171205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>171205</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>180103</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5">
-        <v>180103</v>
+        <v>180112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5">
         <v>180112</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
-        <v>180112</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>180417</v>
@@ -894,55 +937,55 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5">
         <v>180417</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
+      <c r="A22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>180417</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>180822</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5">
-        <v>180417</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>180822</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>180822</v>
       </c>
-      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
         <v>180822</v>
@@ -950,43 +993,58 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>180822</v>
       </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
+      <c r="A27" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
-        <v>180822</v>
-      </c>
+      <c r="C27" s="5">
+        <v>200203</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>200203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3">
-        <v>180822</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>200203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D28">
-    <sortCondition ref="C2:C28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -995,12 +1053,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1125,7 @@
         <v>171205</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,7 +1133,7 @@
         <v>180112</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,7 +1141,7 @@
         <v>180417</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,16 +1149,19 @@
         <v>180822</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>200203</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987512BE-A3B4-496C-930B-798E9BE5D7D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6584DE-B536-4D33-92F8-88B01EACE806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>User</t>
   </si>
@@ -262,6 +264,15 @@
   </si>
   <si>
     <t>MSc student</t>
+  </si>
+  <si>
+    <t>Fixed error in SubCommunity.cpp involving #if macro; Fixed bugs in GUI when running batchmode from GUI; Removed Goal Bias from output parameters file when GoalType is 0; Implemented dynamic SMS cost map in batch mode only</t>
+  </si>
+  <si>
+    <t>Victoria Dominguez Almela</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
   </si>
 </sst>
 </file>
@@ -668,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,6 +1053,17 @@
         <v>69</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5">
+        <v>200902</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
     <sortCondition ref="C2:C29"/>
@@ -1054,11 +1076,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1182,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>200902</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6584DE-B536-4D33-92F8-88B01EACE806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDD0F9-3A6C-4612-AC4C-70A4223842E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>User</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Tamsin Woodman</t>
   </si>
 </sst>
 </file>
@@ -679,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1064,17 @@
         <v>72</v>
       </c>
       <c r="C30" s="5">
+        <v>200902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
         <v>200902</v>
       </c>
     </row>

--- a/doc/RS_v2.0_distribution.xlsx
+++ b/doc/RS_v2.0_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDD0F9-3A6C-4612-AC4C-70A4223842E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33A645-8CAD-41BE-A2D2-E4A63440DF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>User</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Tamsin Woodman</t>
+  </si>
+  <si>
+    <t>Charlie Kenny</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Fixed bug allowing occupancy output to be selected for an artificial landscape</t>
   </si>
 </sst>
 </file>
@@ -682,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,6 +1087,17 @@
         <v>200902</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5">
+        <v>200902</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
     <sortCondition ref="C2:C29"/>
@@ -1090,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1204,6 +1224,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
